--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1762191.28425045</v>
+        <v>-1764141.51007901</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800617</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.6096531981072</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>106.5179564623888</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>72.55327173591292</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>14.71189917309828</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>95.33023562355962</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>162.5776147681367</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>107.3013038024369</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>29.49903744777559</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>43.60620160013897</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>192.5627265154902</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.678544441207</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>27.05951636829814</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>206.0978190620145</v>
       </c>
       <c r="Y10" t="n">
-        <v>78.64571997422891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>126.9159244190245</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>121.8894041062628</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>18.13571651166056</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1904,10 +1904,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>21.33907147873038</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>264.0040014850529</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.10180512623844</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>97.9653260821548</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.18719652447299</v>
+        <v>120.6062788327028</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463141</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593956</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,19 +3004,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1179.6743727057</v>
+        <v>944.711884694686</v>
       </c>
       <c r="C2" t="n">
-        <v>810.7118557652886</v>
+        <v>944.711884694686</v>
       </c>
       <c r="D2" t="n">
-        <v>810.7118557652886</v>
+        <v>586.4461860879354</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>586.4461860879354</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>579.500685338732</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>161.5368772369188</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2447.685470265814</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2447.685470265814</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2447.685470265814</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>2094.916814995699</v>
       </c>
       <c r="X2" t="n">
-        <v>1956.413544745634</v>
+        <v>1721.451056734619</v>
       </c>
       <c r="Y2" t="n">
-        <v>1566.274212769822</v>
+        <v>1331.311724758808</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>991.2778500677821</v>
+        <v>1031.077791139709</v>
       </c>
       <c r="C5" t="n">
-        <v>991.2778500677821</v>
+        <v>662.1152741992971</v>
       </c>
       <c r="D5" t="n">
-        <v>991.2778500677821</v>
+        <v>662.1152741992971</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>662.1152741992971</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>251.1293694096896</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>237.2059653482805</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>991.2778500677821</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y5" t="n">
-        <v>991.2778500677821</v>
+        <v>1031.077791139709</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.200144220494</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.9896501033331</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>97.9896501033331</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>97.9896501033331</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>533.621179645333</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>533.621179645333</v>
       </c>
       <c r="U7" t="n">
-        <v>352.67413830922</v>
+        <v>533.621179645333</v>
       </c>
       <c r="V7" t="n">
-        <v>97.9896501033331</v>
+        <v>533.621179645333</v>
       </c>
       <c r="W7" t="n">
-        <v>97.9896501033331</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X7" t="n">
-        <v>97.9896501033331</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.9896501033331</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>645.7277074313452</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>645.7277074313452</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>234.7418026417376</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221264</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1173.337372245452</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +4999,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2716929833838</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5021,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>646.9375622247744</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>646.9375622247744</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>523.8169520164281</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>874.9271131227918</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>646.9375622247744</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.9375622247744</v>
+        <v>692.3809108364817</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.9270045185177</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273991</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>825.7091345600652</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>597.7195836620479</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y16" t="n">
-        <v>376.9270045185177</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5507,13 +5507,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514081</v>
@@ -5537,7 +5537,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5552,13 +5552,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141287</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.274692278279</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1925.814757496976</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>964.447598905683</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0304288687223</v>
+        <v>1232.245561987142</v>
       </c>
       <c r="X19" t="n">
-        <v>447.040877970705</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,16 +5771,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141287</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678161</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.6010158349783</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>545.6648329070714</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1486.692224975843</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1486.692224975843</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1486.692224975843</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1486.692224975843</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1232.007736769956</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>942.5905667329956</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X22" t="n">
-        <v>714.6010158349783</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.6010158349783</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514081</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>167.8887746690288</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>316.9584588710886</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775526</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170014</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.2468244550147</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>245.1301850426789</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609662</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550793</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181187</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="X25" t="n">
-        <v>441.9005583181187</v>
+        <v>870.7229774352693</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.9005583181187</v>
+        <v>649.9303982917392</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6212,31 +6212,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845919</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831245</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
         <v>398.9545963083206</v>
@@ -6376,16 +6376,16 @@
         <v>221.529509210313</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141287</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678161</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,49 +6698,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>816.7950850315617</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6929,31 +6929,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.607977814708</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211719</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113633</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083204</v>
@@ -7090,10 +7090,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254955</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211719</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>303.4575213834703</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>550.2226492899342</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M42" t="n">
-        <v>857.5427825698957</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1014.141587792752</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1321.461721072714</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039406</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229671</v>
@@ -7792,22 +7792,22 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627458</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.23759968302144</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.7842838544522</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>360.502686290726</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119848</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>29.47535963978328</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,10 +9726,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627467</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863237</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>349.7653003338573</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>159.012100313525</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>87.16935584025481</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>159.0121003135251</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928343</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>15.83804904622937</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504523</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11379,16 +11379,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>93.88676507992682</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.3207168741546</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>217.4048163019684</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>63.13204062090043</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>52.91605576291279</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>26.72606891194953</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>21.061351931536</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>268.3872818249304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23941,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>230.7985718450976</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>22.51899685153808</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.86254727755436</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24184,16 +24184,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>120.61932726994</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.6447836574643</v>
+        <v>59.22570134923453</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1311782.711030735</v>
+        <v>1311782.711030734</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1311782.711030735</v>
+        <v>1311782.711030734</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1311782.711030734</v>
+        <v>1311782.711030735</v>
       </c>
     </row>
     <row r="9">
@@ -26317,43 +26317,43 @@
         <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>78205.81194754179</v>
+        <v>78205.81194754175</v>
       </c>
       <c r="F2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78205.81194754176</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78205.81194754169</v>
+      </c>
+      <c r="I2" t="n">
         <v>78205.81194754178</v>
       </c>
-      <c r="G2" t="n">
-        <v>78205.81194754173</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78205.81194754175</v>
-      </c>
-      <c r="I2" t="n">
-        <v>78205.81194754175</v>
-      </c>
       <c r="J2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642844</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642841</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963056</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371258</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687077</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687078</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="K4" t="n">
+        <v>44593.39482819116</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.39482819122</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.3948281912</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.39482819126</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819125</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819121</v>
-      </c>
       <c r="P4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
         <v>97715.1058200254</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-734520.9318200385</v>
+        <v>-734636.8846839449</v>
       </c>
       <c r="C6" t="n">
         <v>-166387.7688635055</v>
       </c>
       <c r="D6" t="n">
-        <v>-166387.7688635056</v>
+        <v>-166387.7688635055</v>
       </c>
       <c r="E6" t="n">
-        <v>-561116.1580649418</v>
+        <v>-561213.6171909139</v>
       </c>
       <c r="F6" t="n">
-        <v>-35956.12158804556</v>
+        <v>-36053.58071401775</v>
       </c>
       <c r="G6" t="n">
-        <v>-35956.12158804564</v>
+        <v>-36053.58071401778</v>
       </c>
       <c r="H6" t="n">
-        <v>-35956.12158804564</v>
+        <v>-36053.58071401783</v>
       </c>
       <c r="I6" t="n">
-        <v>-35956.12158804558</v>
+        <v>-36053.58071401773</v>
       </c>
       <c r="J6" t="n">
-        <v>-291133.0549580939</v>
+        <v>-291133.0549580936</v>
       </c>
       <c r="K6" t="n">
-        <v>-60204.32366178824</v>
+        <v>-60204.32366178828</v>
       </c>
       <c r="L6" t="n">
-        <v>-60204.32366178821</v>
+        <v>-60204.32366178822</v>
       </c>
       <c r="M6" t="n">
         <v>-195005.3388956254</v>
       </c>
       <c r="N6" t="n">
-        <v>-60204.32366178831</v>
+        <v>-60204.32366178822</v>
       </c>
       <c r="O6" t="n">
         <v>-114709.8357655008</v>
       </c>
       <c r="P6" t="n">
-        <v>-60204.32366178826</v>
+        <v>-60204.32366178818</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541001</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964072</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>143.8950486217449</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>355.0192015053707</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>60.84065321823553</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>274.6290662698249</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>294.4237353165815</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>102.8277610464302</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>19.58281243452868</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.0552972222735</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>386.7246536524968</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>19.61183632702262</v>
       </c>
       <c r="Y10" t="n">
-        <v>139.9389333778659</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28624,10 +28624,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,31 +32874,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33029,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33038,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33351,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33977,7 +33977,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33986,10 +33986,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,7 +34214,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34223,10 +34223,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34451,7 +34451,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34460,10 +34460,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>618.5494866776701</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.2506324680955</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303329</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560242</v>
@@ -36212,10 +36212,10 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>642.8663885318341</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081124</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.3855385946899</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178483</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>632.1290025749654</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>408.2698052695492</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,10 +37233,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>420.3639292382675</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>469.4364773639912</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352442</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>166.4134876341685</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109089</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>343.144470035951</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38181,7 +38181,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
